--- a/quechua.xlsx
+++ b/quechua.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\nueva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\GitHub\Conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B91B99-C3B6-46F7-9D76-58FAAB15EF47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>quechua</t>
   </si>
@@ -49,12 +48,45 @@
   </si>
   <si>
     <t>espanol</t>
+  </si>
+  <si>
+    <t>punuy</t>
+  </si>
+  <si>
+    <t>dormir</t>
+  </si>
+  <si>
+    <t>yachay</t>
+  </si>
+  <si>
+    <t>saber</t>
+  </si>
+  <si>
+    <t>tusay</t>
+  </si>
+  <si>
+    <t>bailar</t>
+  </si>
+  <si>
+    <t>wasiy</t>
+  </si>
+  <si>
+    <t>rimay</t>
+  </si>
+  <si>
+    <t>hablar</t>
+  </si>
+  <si>
+    <t>rikuy</t>
+  </si>
+  <si>
+    <t>ver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,16 +404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -397,7 +429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -405,12 +437,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
